--- a/config_2.2/act_ty_phb_config.xlsx
+++ b/config_2.2/act_ty_phb_config.xlsx
@@ -28,9 +28,6 @@
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>image|道具图片</t>
-  </si>
-  <si>
     <t>rank_type|排行榜类型</t>
   </si>
   <si>
@@ -71,10 +68,6 @@
   </si>
   <si>
     <t>16,20,</t>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
@@ -128,6 +121,14 @@
       </rPr>
       <t>_dlphb</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +532,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,31 +556,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -596,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6">
         <v>1612224000</v>
@@ -611,10 +612,10 @@
         <v>1612799999</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -642,13 +643,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -659,7 +660,7 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -670,7 +671,7 @@
         <v>30000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -681,7 +682,7 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -692,7 +693,7 @@
         <v>3000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -703,7 +704,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -714,7 +715,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -725,7 +726,7 @@
         <v>500</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/act_ty_phb_config.xlsx
+++ b/config_2.2/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>line|</t>
   </si>
@@ -43,9 +43,6 @@
     <t>award|奖励</t>
   </si>
   <si>
-    <t>award_config</t>
-  </si>
-  <si>
     <t>ID|</t>
   </si>
   <si>
@@ -74,14 +71,39 @@
   </si>
   <si>
     <t>16,20,</t>
-  </si>
-  <si>
-    <t>khqd_001_lzphb_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>act_ty_by_drop_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drswn_002_ygbd_rank</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path|路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_001_dlphb</t>
+  </si>
+  <si>
+    <t>is_on_off</t>
   </si>
 </sst>
 </file>
@@ -127,7 +149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,13 +178,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,65 +494,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="58.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="56.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="58.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4">
-        <v>1611014400</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1611590399</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G2" s="3">
+        <v>1611590400</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1612195199</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -541,7 +596,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,13 +608,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -570,7 +625,7 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -581,7 +636,7 @@
         <v>30000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -592,7 +647,7 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -603,7 +658,7 @@
         <v>3000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -614,7 +669,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -625,7 +680,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -636,7 +691,7 @@
         <v>500</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/act_ty_phb_config.xlsx
+++ b/config_2.2/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,9 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drswn_002_ygbd_rank</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>path|路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +93,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act_001_dlphb</t>
-  </si>
-  <si>
     <t>is_on_off</t>
+  </si>
+  <si>
+    <t>cjs_003_bzphb_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>act_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dlphb</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -134,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +178,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,11 +215,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +531,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -544,8 +578,8 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
+      <c r="J1" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -562,25 +596,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1611590400</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1612195199</v>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1612224000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1612799999</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K2" s="3"/>
     </row>
